--- a/leadership-report/multi_project_jira_summary.xlsx
+++ b/leadership-report/multi_project_jira_summary.xlsx
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -548,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3 {'story' if total_stories == 1 else 'stories'} in scope + Regression.</t>
+          <t>4 {'story' if total_stories == 1 else 'stories'} in scope + Regression.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>* 7 defect(s) still open and 0 defect(s) closed today.</t>
+          <t>* 8 defect(s) still open and 0 defect(s) closed today.</t>
         </is>
       </c>
     </row>
